--- a/7 Visualizations/Visualizations - 1. Bar and Column Charts.xlsx
+++ b/7 Visualizations/Visualizations - 1. Bar and Column Charts.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\8. Visualizations\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smcgb\excel-for-data-analysis\7 Visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB2BE9D6-3C4E-4B0B-91C5-911696AFFBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE6AF52-3820-4A8B-94A8-26247CDA8C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar Charts" sheetId="1" r:id="rId1"/>
     <sheet name="Column Charts" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Bar Charts'!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Bar Charts'!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Bar Charts'!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Bar Charts'!$B$2:$B$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -188,6 +194,7568 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Rainfall By US City</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Charts'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Miami</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Houston</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boston</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dallas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Seattle</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chicago</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Denver</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Los Angeles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Charts'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38BF-4CAF-9B0A-DF92D77DBE1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="874488816"/>
+        <c:axId val="874489296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="874488816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874489296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="874489296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874488816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Rainfall (MM) By US City</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36785961206068751"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bar Charts'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New York</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Charts'!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E57-419A-B5E5-B4669E24A3FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bar Charts'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seattle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Charts'!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2E57-419A-B5E5-B4669E24A3FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bar Charts'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Los Angeles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Charts'!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2E57-419A-B5E5-B4669E24A3FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="874488816"/>
+        <c:axId val="874489296"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Miami</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1575</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2E57-419A-B5E5-B4669E24A3FA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Houston</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1220</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2E57-419A-B5E5-B4669E24A3FA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Boston</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$B$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1145</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-2E57-419A-B5E5-B4669E24A3FA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Dallas</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>970</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2E57-419A-B5E5-B4669E24A3FA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Chicago</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>845</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-2E57-419A-B5E5-B4669E24A3FA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Denver</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Bar Charts'!$B$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>480</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-2E57-419A-B5E5-B4669E24A3FA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="874488816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="874489296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="874489296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874488816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue in Billions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>265.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>303.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>315.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0686-47D5-813C-D5D9662AB05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Microsoft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>110.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0686-47D5-813C-D5D9662AB05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>220.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0686-47D5-813C-D5D9662AB05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>193.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>345.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>425.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0686-47D5-813C-D5D9662AB05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1366598160"/>
+        <c:axId val="1366598640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1366598160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366598640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1366598640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366598160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue in Billions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>265.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>303.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>315.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0441-454B-91F1-CA87B12B6270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Microsoft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>110.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0441-454B-91F1-CA87B12B6270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>220.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0441-454B-91F1-CA87B12B6270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>193.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>345.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>425.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0441-454B-91F1-CA87B12B6270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="1366598160"/>
+        <c:axId val="1366598640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1366598160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366598640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1366598640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366598160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Revenue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Cost of Goods</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$O$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$O$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1944247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2158114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1850750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>910303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1037745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA8C-4FE2-BEC1-3578B862C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost of Goods</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$O$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$O$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-661044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-669015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-323285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-327709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-311323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA8C-4FE2-BEC1-3578B862C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Charts'!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Charts'!$O$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Charts'!$O$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1283203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1489099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>527465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>582594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>726421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA8C-4FE2-BEC1-3578B862C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1363289936"/>
+        <c:axId val="1363288976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1363289936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363288976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1363288976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363289936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Rainfall By US City</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Rainfall By US City</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{FC4D2CF4-F2D5-4ABD-AE8F-C4111233CC5B}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{6B883730-B3D2-4B7F-A499-AF14F3A8C5EF}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>City</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>City</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Rainfall (MM)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Rainfall (MM)</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Rainfal (pct.)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Rainfal (pct.)</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200268</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>473808</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>64965</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F8CA48-1B71-875D-BADE-1FE068CAB577}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3829537" y="57150"/>
+              <a:ext cx="5949463" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19538</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786422</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22469</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF3E070-45AA-4DC3-8146-F1328AF39A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>786423</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2930</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DF7F59-296F-4DA4-847D-6D8FBAE7FC1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>196192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A31EF8-E236-1E84-7BDB-2C6D254DDA20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67424199-5813-42F3-A1AF-80345DC47CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>227725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>74449</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166413</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45DF020-5F70-22E2-621B-487B18A671C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -453,8 +8021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -473,34 +8041,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>375</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>480</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>845</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>965</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -513,41 +8081,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1035</v>
+        <v>965</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1145</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>1220</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1575</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
-    <sortCondition ref="B4:B10"/>
+    <sortCondition descending="1" ref="B2:B10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -555,8 +8124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D6BEC3-C175-4110-8EA4-B0A0E650CC12}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -755,5 +8324,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>